--- a/Python/Results Summary/Results_EI_NegativeNEin2020_-724_TrueREFERENCEreference.xlsx
+++ b/Python/Results Summary/Results_EI_NegativeNEin2020_-724_TrueREFERENCEreference.xlsx
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>166759.0696764209</v>
+        <v>159751.7713141513</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>166759.0696764209</v>
+        <v>159751.7713141513</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>393414.2751003528</v>
+        <v>426301.8880599275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>393414.2751003528</v>
+        <v>426301.8880599275</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>560173.3447767737</v>
+        <v>586053.6593740787</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>560173.3447767737</v>
+        <v>586053.6593740787</v>
       </c>
     </row>
   </sheetData>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4407.232273170413</v>
+        <v>3551.456008862476</v>
       </c>
       <c r="E4">
-        <v>4407.232273170413</v>
+        <v>3551.456008862476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1195009.408519918</v>
+        <v>1379522.630524825</v>
       </c>
       <c r="E6">
-        <v>1195009.408519918</v>
+        <v>1379522.630524825</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>495365.2747276734</v>
+        <v>467224.0685328308</v>
       </c>
       <c r="E7">
-        <v>495365.2747276734</v>
+        <v>467224.0685328308</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>164738.080593885</v>
+        <v>141600.6594083337</v>
       </c>
       <c r="E8">
-        <v>164738.080593885</v>
+        <v>141600.6594083337</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>20325.18499634101</v>
+        <v>202456.9300873142</v>
       </c>
       <c r="E9">
-        <v>20325.18499634101</v>
+        <v>202456.9300873142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-152751.0624773315</v>
+        <v>-151089.0826633415</v>
       </c>
       <c r="E10">
-        <v>-152751.0624773315</v>
+        <v>-151089.0826633415</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11245.3711960246</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>11245.3711960246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>28805.95571969814</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>28805.95571969814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8105400000000005</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8105400000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -925,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01155</v>
+        <v>0.005</v>
       </c>
       <c r="E12">
-        <v>0.01155</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>34.18400000000002</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>34.18400000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1212.389312931436</v>
+        <v>988.501054850247</v>
       </c>
       <c r="E4">
-        <v>1212.389312931436</v>
+        <v>988.501054850247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>127077.3197325193</v>
+        <v>150645.612926058</v>
       </c>
       <c r="E6">
-        <v>127077.3197325193</v>
+        <v>150645.612926058</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>37919.54681531712</v>
+        <v>38220.08322953877</v>
       </c>
       <c r="E7">
-        <v>37919.54681531712</v>
+        <v>38220.08322953877</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11978.74218362829</v>
+        <v>9716.708963494728</v>
       </c>
       <c r="E8">
-        <v>11978.74218362829</v>
+        <v>9716.708963494728</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4642.960477134802</v>
+        <v>38485.94703835318</v>
       </c>
       <c r="E9">
-        <v>4642.960477134802</v>
+        <v>38485.94703835318</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-42849.52344686633</v>
+        <v>-45841.25676317199</v>
       </c>
       <c r="E10">
-        <v>-42849.52344686633</v>
+        <v>-45841.25676317199</v>
       </c>
     </row>
   </sheetData>
